--- a/src/assets/data.xlsx
+++ b/src/assets/data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="132">
   <si>
     <t>arr.push(...items)</t>
   </si>
@@ -107,9 +107,6 @@
     <t>Найти элемент массива</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>theme</t>
   </si>
   <si>
@@ -119,9 +116,6 @@
     <t>title</t>
   </si>
   <si>
-    <t>massive</t>
-  </si>
-  <si>
     <t>Array.from(arr)</t>
   </si>
   <si>
@@ -131,12 +125,6 @@
     <t>Соединить элементы массива в строку</t>
   </si>
   <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>js</t>
-  </si>
-  <si>
     <t>str.length</t>
   </si>
   <si>
@@ -185,14 +173,260 @@
     <t>Сделать большими буквами.</t>
   </si>
   <si>
-    <t>string</t>
+    <t>arr.length</t>
+  </si>
+  <si>
+    <t>Длина массива. Можно перезаписывать, тем самым очищая или укорачивая массив</t>
+  </si>
+  <si>
+    <t>arr.at(-1)</t>
+  </si>
+  <si>
+    <t>Возвращает  последний элемент массива.</t>
+  </si>
+  <si>
+    <t>for (let i=0; i&lt;arr.length; i++)</t>
+  </si>
+  <si>
+    <t>Иттерация по массиву.</t>
+  </si>
+  <si>
+    <t>for (let item of arr)</t>
+  </si>
+  <si>
+    <t>Современный синтаксис иттерации по массиву без доступа к индексу элемента.</t>
+  </si>
+  <si>
+    <t>Object.values(obj)</t>
+  </si>
+  <si>
+    <t>Массив значений объекта</t>
+  </si>
+  <si>
+    <t>Массивы</t>
+  </si>
+  <si>
+    <t>Строки</t>
+  </si>
+  <si>
+    <t>Объекты</t>
+  </si>
+  <si>
+    <t>lang</t>
+  </si>
+  <si>
+    <t>JS</t>
+  </si>
+  <si>
+    <t>font-family</t>
+  </si>
+  <si>
+    <t>font-size</t>
+  </si>
+  <si>
+    <t>font-style</t>
+  </si>
+  <si>
+    <t>font-weight</t>
+  </si>
+  <si>
+    <t>text-align</t>
+  </si>
+  <si>
+    <t>text-shadow</t>
+  </si>
+  <si>
+    <t>text-transform</t>
+  </si>
+  <si>
+    <t>text-ident</t>
+  </si>
+  <si>
+    <t>letter-spacing</t>
+  </si>
+  <si>
+    <t>word-spacing</t>
+  </si>
+  <si>
+    <t>white-space</t>
+  </si>
+  <si>
+    <t>line-height</t>
+  </si>
+  <si>
+    <t>Шрифт</t>
+  </si>
+  <si>
+    <t>Размер шрифта</t>
+  </si>
+  <si>
+    <t>Определяет начертание шрифта (обычный, курсив, наклонный)</t>
+  </si>
+  <si>
+    <t>Насыщенность шрифта</t>
+  </si>
+  <si>
+    <t>Определяет горизонтальное выравнивание текста в пределах элемента.</t>
+  </si>
+  <si>
+    <t>Добавляет тень к тексту.</t>
+  </si>
+  <si>
+    <t>Управляет преобразованием текста в заглавные или прописные символы.</t>
+  </si>
+  <si>
+    <t>Устанавливает величину отступа первой строки блока текста. Применяется, если нам нужно сделать красную строку.</t>
+  </si>
+  <si>
+    <t>Расстояние между буквами</t>
+  </si>
+  <si>
+    <t>Расстояние между словами</t>
+  </si>
+  <si>
+    <t>Управляет свойствами пробелов между словами. Применяется в основном со значением nowrap которое запрещает перенос строки. Таким образом весь текст отображается в одну строку и не ломается. Значение normal вернет все как было.</t>
+  </si>
+  <si>
+    <t>Устанавливает межстрочный интервал текста.</t>
+  </si>
+  <si>
+    <t>CSS</t>
+  </si>
+  <si>
+    <t>Текст</t>
+  </si>
+  <si>
+    <t>.block {}</t>
+  </si>
+  <si>
+    <t>div {}</t>
+  </si>
+  <si>
+    <t>Селектор класса</t>
+  </si>
+  <si>
+    <t>Селектор типа</t>
+  </si>
+  <si>
+    <t>Только &lt;span&gt; с классом bigred</t>
+  </si>
+  <si>
+    <t>Внутри класса bigred только &lt;span&gt;</t>
+  </si>
+  <si>
+    <t>.block,.block2 {}</t>
+  </si>
+  <si>
+    <t>Обращение к нескольким классам</t>
+  </si>
+  <si>
+    <t>Селекторы</t>
+  </si>
+  <si>
+    <t>span.bigred { ...}</t>
+  </si>
+  <si>
+    <t>.bigred span {...}</t>
+  </si>
+  <si>
+    <t>grid-template-columns</t>
+  </si>
+  <si>
+    <t>grid-template-rows</t>
+  </si>
+  <si>
+    <t>grid-auto-rows</t>
+  </si>
+  <si>
+    <t>grid-column-gap</t>
+  </si>
+  <si>
+    <t>grid-row-gap</t>
+  </si>
+  <si>
+    <t>grid-gap</t>
+  </si>
+  <si>
+    <t>grid-template-areas</t>
+  </si>
+  <si>
+    <t>grid-area</t>
+  </si>
+  <si>
+    <t>justify-content</t>
+  </si>
+  <si>
+    <t>align-content</t>
+  </si>
+  <si>
+    <t>align-items</t>
+  </si>
+  <si>
+    <t>justify-self</t>
+  </si>
+  <si>
+    <t>align-self</t>
+  </si>
+  <si>
+    <t>grid-column-start</t>
+  </si>
+  <si>
+    <t>grid-row-start</t>
+  </si>
+  <si>
+    <t>justify-items</t>
+  </si>
+  <si>
+    <t>Количество и ширина колонок.</t>
+  </si>
+  <si>
+    <t>Количество и высота строк.</t>
+  </si>
+  <si>
+    <t>Задать схему ячеек.</t>
+  </si>
+  <si>
+    <t>Задаёт размер для тех строк, для которых он явно не задан</t>
+  </si>
+  <si>
+    <t>Отступ между строками</t>
+  </si>
+  <si>
+    <t>Отступ между колонками</t>
+  </si>
+  <si>
+    <t>Отступы и между колонками и между строками</t>
+  </si>
+  <si>
+    <t>Для дочернего элемента (ячейки)</t>
+  </si>
+  <si>
+    <t>Выравниевание по X</t>
+  </si>
+  <si>
+    <t>Выравниевание по Y</t>
+  </si>
+  <si>
+    <t>Выравниевание ячеек по X</t>
+  </si>
+  <si>
+    <t>Выравниевание ячейки по X</t>
+  </si>
+  <si>
+    <t>Начало элемента со столбца</t>
+  </si>
+  <si>
+    <t>Начало элемента со строки</t>
+  </si>
+  <si>
+    <t>Grid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,37 +436,42 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Fira Code SemiBold"/>
-      <family val="3"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Fira Code"/>
-      <family val="3"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -240,24 +479,53 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -539,430 +807,888 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="B43" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47:D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.7109375" customWidth="1"/>
-    <col min="2" max="2" width="122.140625" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" customWidth="1"/>
+    <col min="1" max="1" width="55.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="122.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B23" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="B24" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B25" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="C25" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B26" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="C26" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B27" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="C27" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B28" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25">
-        <v>24</v>
+      <c r="C28" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/data.xlsx
+++ b/src/assets/data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="202">
   <si>
     <t>arr.push(...items)</t>
   </si>
@@ -323,12 +323,6 @@
     <t>Селекторы</t>
   </si>
   <si>
-    <t>span.bigred { ...}</t>
-  </si>
-  <si>
-    <t>.bigred span {...}</t>
-  </si>
-  <si>
     <t>grid-template-columns</t>
   </si>
   <si>
@@ -420,6 +414,222 @@
   </si>
   <si>
     <t>Grid</t>
+  </si>
+  <si>
+    <t>span.bigred {}</t>
+  </si>
+  <si>
+    <t>.bigred span {}</t>
+  </si>
+  <si>
+    <t>Блоки</t>
+  </si>
+  <si>
+    <t>padding</t>
+  </si>
+  <si>
+    <t>margin</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>max-width</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> min-width</t>
+  </si>
+  <si>
+    <t>overflow</t>
+  </si>
+  <si>
+    <t>display</t>
+  </si>
+  <si>
+    <t>Внутренний отступ блочных тегов. Не может быть отрицательных значений.</t>
+  </si>
+  <si>
+    <t>Внешний отступ блочных тегов. Могут быть отрицательные значения.</t>
+  </si>
+  <si>
+    <t>Устанавливает ширину блочных тегов и некоторыйх строчных (например img)</t>
+  </si>
+  <si>
+    <t>Устанавливает максимальную ширину блочных тегов и некоторыйх строчных (например img)</t>
+  </si>
+  <si>
+    <t>Устанавливает минимальную ширину блочных тегов и некоторыйх строчных (например img)</t>
+  </si>
+  <si>
+    <t>Оформление</t>
+  </si>
+  <si>
+    <t>border</t>
+  </si>
+  <si>
+    <t>border-radius</t>
+  </si>
+  <si>
+    <t>Устанавливает радиус скругления уголков блока.</t>
+  </si>
+  <si>
+    <t>outline</t>
+  </si>
+  <si>
+    <t>box-shadow</t>
+  </si>
+  <si>
+    <t>opacity</t>
+  </si>
+  <si>
+    <t>visibility</t>
+  </si>
+  <si>
+    <t>background-repeat</t>
+  </si>
+  <si>
+    <t>Определяет, как будет повторяться фоновое изображение, установленное с помощью свойства background-image.</t>
+  </si>
+  <si>
+    <t>Фон</t>
+  </si>
+  <si>
+    <t>background-position</t>
+  </si>
+  <si>
+    <t>Задает начальное положение фонового изображения, установленного с помощью свойства background-image.</t>
+  </si>
+  <si>
+    <t>background-attachment</t>
+  </si>
+  <si>
+    <t>Устанавливает, будет ли прокручиваться фоновое изображение вместе с содержимым элемента.</t>
+  </si>
+  <si>
+    <t>background-size</t>
+  </si>
+  <si>
+    <t>Псевдоклассы</t>
+  </si>
+  <si>
+    <t>:hover</t>
+  </si>
+  <si>
+    <t>:active</t>
+  </si>
+  <si>
+    <t>:visited</t>
+  </si>
+  <si>
+    <t>:focus</t>
+  </si>
+  <si>
+    <t>:first-child</t>
+  </si>
+  <si>
+    <t>:last-child</t>
+  </si>
+  <si>
+    <t>:nth-child(порядковый номер элемента)</t>
+  </si>
+  <si>
+    <t>Действует при наведении на элемент. Часто применяется применяется как для ссылок так и для любого другого элемента.</t>
+  </si>
+  <si>
+    <t>Срабатывает при нажатии на элемент. В основном применяется к ссылкам и кнопкам.</t>
+  </si>
+  <si>
+    <t>Срабатывает для посещенных ссылок</t>
+  </si>
+  <si>
+    <t>Срабатывает при получении элементом фокуса. Часто применяется к елементам форм. Например инпутам.</t>
+  </si>
+  <si>
+    <t>Обращение к первому элементу в блоке</t>
+  </si>
+  <si>
+    <t>Обращение к последнему элементу в блоке</t>
+  </si>
+  <si>
+    <t>Обращение к конкретным элементам в блоке</t>
+  </si>
+  <si>
+    <t>Псевдоэлементы</t>
+  </si>
+  <si>
+    <t>:first-line</t>
+  </si>
+  <si>
+    <t>:first-letter</t>
+  </si>
+  <si>
+    <t>:before</t>
+  </si>
+  <si>
+    <t>::-ms-clear {}</t>
+  </si>
+  <si>
+    <t>::-moz-focus-inner{}</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>top, bottom, left и right</t>
+  </si>
+  <si>
+    <t>z-index</t>
+  </si>
+  <si>
+    <t>Позиционирование</t>
+  </si>
+  <si>
+    <t>Управляет наложением друг на друга элементов с параметрами position:relative,position:absolute,position:fixed по оси Z. z-index по умолчанию 0, и работает только когда position:relative</t>
+  </si>
+  <si>
+    <t>Задаёт стиль внутренней части элемента. Только FireFox</t>
+  </si>
+  <si>
+    <t>Задаёт стиль кнопки для очистки текстового поля. Исходно эта кнопка не видна, она появляется в правой части поля только при вводе текста. Только IE</t>
+  </si>
+  <si>
+    <t>Применяется для отображения желаемого контента до содержимого элемента, к которому он добавляется. Работает совместно со свойством content. Без свойства content элемент не отобразится в браузере. При добавлении :before к блочному элементу, значение свойства display может быть только: block, inline, none, list-item. Все остальные значения будут трактоваться как block. При добавлении :before к встроенному элементу, display ограничен значениями inline и none. Все остальные будут восприниматься как inline.</t>
+  </si>
+  <si>
+    <t>Задает стиль первой строки форматированного текста. Длина этой строки зависит от многих факторов, таких как используемый шрифт, размер окна браузера, ширина блока, языка и т.д. В правилах стиля допустимо использовать только свойства, относящиеся к шрифту, изменению цвета текста и фона.</t>
+  </si>
+  <si>
+    <t>Определяет стиль первого символа в тексте элемента, к которому добавляется. К этому псевдоэлементу могут применяться только стилевые свойства,связанные со свойствами шрифта, полями, отступами, границами, цветом и фоном.</t>
+  </si>
+  <si>
+    <t>Определяет уровень прозрачности элемента. Отличие opacity:0; от display:none; в том что блок не убирается из верстки а только становиться прозрачным, то есть занимаемое им место остается. Так же, с прозрачными элементами все еще можно взаимодействовать, например кликать по ссылкам.</t>
+  </si>
+  <si>
+    <t>обавляет тень к элементу. box-shadow: сдвиг_по_гориз сдвиг_по_верт радиус расстояние</t>
+  </si>
+  <si>
+    <t>Универсальное свойство, одновременно устанавливающее цвет, стиль и толщину внешней границы на всех четырех сторонах элемента. В отличие от линии, задаваемой через border, свойство outline не влияет на положение блока и его ширину. Также нельзя задать параметры линии на отдельных сторонах элемента, outline применяется сразу ко всем четырём сторонам.</t>
+  </si>
+  <si>
+    <t>Универсальное свойство border позволяет одновременно установить толщину, стиль и цвет границы вокруг элемента. border: 1px solid #000; (размер стиль цвет) Основные стили - solid dotted dashed Обводка делается внутри блока, смещая внутрь контент.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Многоцелевое свойство, которое определяет, как элемент должен быть показан в документе. </t>
+  </si>
+  <si>
+    <t>Управляет отображением содержания блочного элемента.</t>
+  </si>
+  <si>
+    <t>Предназначен для отображения или скрытия элемента. Отличие visibility: hidden; от display:none; в том что блок не убирается из верстки а только скрывается, то есть занимаемое им место остается. Отличие visibility: hidden; от opacity:0; в том что блок скрывается и взаимодействовать с ним нельзя.</t>
+  </si>
+  <si>
+    <t>Управляют положением элемента сверху снизу слева и справа. Значения могут указываются в том числе в процентах и могут иметь отрицательные значения. Работают с элементами к которым применен один из параметров position:relative ,position:absolute,position:fixed и position:sticky (только top или bottom)</t>
+  </si>
+  <si>
+    <t>Устанавливает способ позиционирования элемента относительно окна браузера или других объектов на веб-странице. Вспомогательные свойства left, right, top и bottom управляют положением элемента, а z-index управляет наложением друг на друга по оси Z.</t>
+  </si>
+  <si>
+    <t>Масштабирует фоновое изображение согласно заданным размерам.</t>
   </si>
 </sst>
 </file>
@@ -498,7 +708,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -525,6 +735,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -807,10 +1020,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:D94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B43" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47:D62"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,7 +1031,7 @@
     <col min="1" max="1" width="55.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="122.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="14.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -1259,7 +1472,7 @@
     </row>
     <row r="32" spans="1:4" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>94</v>
@@ -1273,7 +1486,7 @@
     </row>
     <row r="33" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>95</v>
@@ -1469,226 +1682,674 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>123</v>
+        <v>138</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>197</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>119</v>
+        <v>139</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>196</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>124</v>
+        <v>146</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>195</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B90" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+      <c r="C90" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B91" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B57" s="1" t="s">
+      <c r="C91" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B59" s="1" t="s">
+      <c r="C93" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B61" s="1" t="s">
+      <c r="C94" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D94" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
   </sheetData>
